--- a/US001 - Quality Assurance Checklist v1.0.xlsx
+++ b/US001 - Quality Assurance Checklist v1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12645" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="4" r:id="rId1"/>
@@ -152,7 +152,7 @@
     <t>GIT</t>
   </si>
   <si>
-    <t>&lt;&lt;URL&gt;&gt;</t>
+    <t>https://github.com/Nguyen8676/DXC</t>
   </si>
   <si>
     <t>Online</t>
@@ -422,11 +422,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="179" formatCode="mm\/dd\/yyyy"/>
   </numFmts>
   <fonts count="40">
@@ -534,23 +534,17 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -561,6 +555,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -569,22 +589,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="238"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,51 +636,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -649,16 +644,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -674,14 +676,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -695,6 +689,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="9"/>
       <name val="Tahoma"/>
@@ -727,187 +728,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1023,6 +1024,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1047,30 +1081,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1082,15 +1092,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1123,148 +1124,148 @@
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="20" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="20" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1285,7 +1286,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="3" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="33" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1359,9 +1360,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1375,7 +1373,8 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="33" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="33" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="33" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="8" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="51">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,52 +1776,52 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C4:G19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21904761904762" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="3.55238095238095" style="40" customWidth="1"/>
-    <col min="2" max="2" width="3" style="40" customWidth="1"/>
-    <col min="3" max="3" width="20.4380952380952" style="40" customWidth="1"/>
-    <col min="4" max="4" width="4.43809523809524" style="40" customWidth="1"/>
-    <col min="5" max="5" width="10.7809523809524" style="40" customWidth="1"/>
-    <col min="6" max="6" width="11.3333333333333" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="9.21904761904762" style="40"/>
+    <col min="1" max="1" width="3.55238095238095" style="39" customWidth="1"/>
+    <col min="2" max="2" width="3" style="39" customWidth="1"/>
+    <col min="3" max="3" width="20.4380952380952" style="39" customWidth="1"/>
+    <col min="4" max="4" width="4.43809523809524" style="39" customWidth="1"/>
+    <col min="5" max="5" width="10.7809523809524" style="39" customWidth="1"/>
+    <col min="6" max="6" width="11.3333333333333" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="9.21904761904762" style="39"/>
   </cols>
   <sheetData>
     <row r="4" ht="35.25" spans="3:3">
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="6" ht="26.25" spans="3:5">
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="42" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="44" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="3:5">
-      <c r="C9" s="44" t="s">
+      <c r="C9" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="44" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="3:5">
-      <c r="C10" s="44" t="s">
+    <row r="10" ht="15" spans="3:5">
+      <c r="C10" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E10" s="45" t="s">
@@ -1830,12 +1829,12 @@
       </c>
     </row>
     <row r="11" spans="3:5">
-      <c r="C11" s="44"/>
-      <c r="E11" s="45"/>
+      <c r="C11" s="43"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="44"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="43"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" ht="14.25" spans="5:7">
       <c r="E13" s="46" t="s">
@@ -1849,7 +1848,7 @@
       </c>
     </row>
     <row r="14" spans="3:7">
-      <c r="C14" s="44" t="s">
+      <c r="C14" s="43" t="s">
         <v>12</v>
       </c>
       <c r="E14" s="32" t="s">
@@ -1892,6 +1891,7 @@
     <hyperlink ref="E13" location="IAF!A1" display="Online"/>
     <hyperlink ref="F13" location="FSU!A1" display="WS"/>
     <hyperlink ref="G13" location="FSU!A1" display="Tool"/>
+    <hyperlink ref="E10" r:id="rId2" display="https://github.com/Nguyen8676/DXC" tooltip="https://github.com/Nguyen8676/DXC"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
@@ -1907,7 +1907,7 @@
   </sheetPr>
   <dimension ref="A2:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
@@ -1941,7 +1941,7 @@
       <c r="B3" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="32" t="s">
@@ -1969,7 +1969,7 @@
       <c r="B5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>24</v>
       </c>
       <c r="D5" s="29" t="s">
@@ -2053,7 +2053,7 @@
       <c r="B11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="37" t="s">
         <v>37</v>
       </c>
       <c r="D11" s="29" t="s">
@@ -2067,7 +2067,7 @@
       <c r="B12" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="37" t="s">
         <v>39</v>
       </c>
       <c r="D12" s="29" t="s">
@@ -2122,7 +2122,7 @@
       <c r="B3" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>41</v>
       </c>
       <c r="D3" s="32" t="s">
@@ -2150,7 +2150,7 @@
       <c r="B5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="32" t="s">
@@ -2178,7 +2178,7 @@
       <c r="B7" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>49</v>
       </c>
       <c r="D7" s="32" t="s">
@@ -2226,7 +2226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" ht="51" spans="1:4">
+    <row r="3" ht="25.5" spans="1:4">
       <c r="A3" s="29">
         <v>1</v>
       </c>
